--- a/data/trans_orig/P36B11_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B11_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F2D33B9-8887-4974-8DE0-AFD81E135614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85E25F56-BFF3-43D9-AC8D-31A25B8FB1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9F31860D-BFA3-479C-83C6-061763594A8F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{90D9D9CB-4132-4CA7-BE51-4DA41AC3D292}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,745 +74,745 @@
     <t>51,22%</t>
   </si>
   <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
   </si>
   <si>
     <t>43,4%</t>
   </si>
   <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
   </si>
   <si>
     <t>47,23%</t>
   </si>
   <si>
-    <t>43,37%</t>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>Uno o dos a la semana</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>Tres o más a la semana</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
   </si>
   <si>
     <t>50,88%</t>
   </si>
   <si>
-    <t>Uno o dos a la semana</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>Tres o más a la semana</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
     <t>36,86%</t>
   </si>
   <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
   </si>
   <si>
     <t>35,68%</t>
   </si>
   <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
   </si>
   <si>
     <t>36,23%</t>
   </si>
   <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
   </si>
   <si>
     <t>17,28%</t>
   </si>
   <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
   </si>
   <si>
     <t>14,39%</t>
   </si>
   <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1227,7 +1227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4486EF1-5E14-469E-BD29-66828B628ACD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7AC2026-19D8-407B-94EC-1E0534FC873B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1766,10 +1766,10 @@
         <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>288</v>
@@ -1778,13 +1778,13 @@
         <v>200647</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>475</v>
@@ -1793,13 +1793,13 @@
         <v>359881</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1814,13 +1814,13 @@
         <v>91785</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>152</v>
@@ -1829,13 +1829,13 @@
         <v>106655</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>248</v>
@@ -1844,13 +1844,13 @@
         <v>198440</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1865,13 +1865,13 @@
         <v>71221</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>96</v>
@@ -1880,13 +1880,13 @@
         <v>65981</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>173</v>
@@ -1895,13 +1895,13 @@
         <v>137203</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1957,7 +1957,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1969,13 +1969,13 @@
         <v>155675</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>286</v>
@@ -1984,13 +1984,13 @@
         <v>178548</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>436</v>
@@ -1999,13 +1999,13 @@
         <v>334223</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,13 +2020,13 @@
         <v>79903</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>165</v>
@@ -2035,13 +2035,13 @@
         <v>132289</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M17" s="7">
         <v>238</v>
@@ -2244,10 +2244,10 @@
         <v>137</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>105</v>
@@ -2256,13 +2256,13 @@
         <v>64995</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,13 +2277,13 @@
         <v>19316</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>43</v>
@@ -2292,13 +2292,13 @@
         <v>20314</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>70</v>
@@ -2307,13 +2307,13 @@
         <v>39630</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,7 +2369,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2381,13 +2381,13 @@
         <v>122052</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H24" s="7">
         <v>243</v>
@@ -2396,13 +2396,13 @@
         <v>138620</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M24" s="7">
         <v>422</v>
@@ -2411,13 +2411,13 @@
         <v>260672</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2432,13 +2432,13 @@
         <v>74783</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H25" s="7">
         <v>141</v>
@@ -2447,13 +2447,13 @@
         <v>92355</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>237</v>
@@ -2462,13 +2462,13 @@
         <v>167139</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,13 +2483,13 @@
         <v>80387</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>76</v>
@@ -2498,13 +2498,13 @@
         <v>44647</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M26" s="7">
         <v>172</v>
@@ -2513,13 +2513,13 @@
         <v>125034</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2575,7 +2575,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2587,13 +2587,13 @@
         <v>364296</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H28" s="7">
         <v>637</v>
@@ -2602,13 +2602,13 @@
         <v>562015</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M28" s="7">
         <v>995</v>
@@ -2617,13 +2617,13 @@
         <v>926312</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,13 +2638,13 @@
         <v>139182</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H29" s="7">
         <v>168</v>
@@ -2653,13 +2653,13 @@
         <v>129744</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M29" s="7">
         <v>290</v>
@@ -2668,10 +2668,10 @@
         <v>268927</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>196</v>
@@ -3032,7 +3032,7 @@
         <v>240</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>50</v>
+        <v>217</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>241</v>
@@ -3122,7 +3122,7 @@
         <v>255</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="M38" s="7">
         <v>1330</v>
@@ -3131,7 +3131,7 @@
         <v>1131516</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>257</v>
